--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -1,119 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programing\diploma\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E96FFA1-8150-433D-A7EC-1CA36125748B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Logs" sheetId="1" r:id="rId1"/>
+    <sheet name="Logs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" calcOnSave="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Features number</t>
-  </si>
-  <si>
-    <t>Train length</t>
-  </si>
-  <si>
-    <t>Control length</t>
-  </si>
-  <si>
-    <t>Hidden size</t>
-  </si>
-  <si>
-    <t>Epochs</t>
-  </si>
-  <si>
-    <t>Train precision</t>
-  </si>
-  <si>
-    <t>Time taken</t>
-  </si>
-  <si>
-    <t>Population size</t>
-  </si>
-  <si>
-    <t>Parents per childs</t>
-  </si>
-  <si>
-    <t>Children per parents</t>
-  </si>
-  <si>
-    <t>Tournament size</t>
-  </si>
-  <si>
-    <t>Similarity coef</t>
-  </si>
-  <si>
-    <t>Mutation rate</t>
-  </si>
-  <si>
-    <t>Mutation fade speed</t>
-  </si>
-  <si>
-    <t>Similarity coef fade speed</t>
-  </si>
-  <si>
-    <t>Control precision</t>
-  </si>
-  <si>
-    <t>2025-07-05 20:49:48</t>
-  </si>
-  <si>
-    <t>sin</t>
-  </si>
-  <si>
-    <t>2025-07-05 21:16:15</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="204"/>
+      <family val="2"/>
       <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,7 +53,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,36 +80,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -470,203 +456,551 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="5" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" style="4" customWidth="1"/>
-    <col min="18" max="18" width="13.85546875" style="5" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="3"/>
+    <col width="13.85546875" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.85546875" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.85546875" customWidth="1" style="4" min="3" max="3"/>
+    <col width="13.85546875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.85546875" customWidth="1" style="4" min="5" max="5"/>
+    <col width="13.85546875" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.85546875" customWidth="1" style="4" min="7" max="7"/>
+    <col width="13.85546875" customWidth="1" style="5" min="8" max="8"/>
+    <col width="13.85546875" customWidth="1" style="4" min="9" max="9"/>
+    <col width="13.85546875" customWidth="1" style="5" min="10" max="10"/>
+    <col width="17.28515625" customWidth="1" style="4" min="11" max="11"/>
+    <col width="16.28515625" customWidth="1" style="5" min="12" max="12"/>
+    <col width="13.85546875" customWidth="1" style="4" min="13" max="13"/>
+    <col width="13.85546875" customWidth="1" style="5" min="14" max="14"/>
+    <col width="13.85546875" customWidth="1" style="4" min="15" max="15"/>
+    <col width="13.85546875" customWidth="1" style="5" min="16" max="16"/>
+    <col width="18.42578125" customWidth="1" style="4" min="17" max="17"/>
+    <col width="13.85546875" customWidth="1" style="5" min="18" max="18"/>
+    <col width="9.140625" customWidth="1" style="3" min="19" max="19"/>
+    <col width="9.140625" customWidth="1" style="3" min="20" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Function</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Features number</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Train length</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Control length</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Hidden size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Train precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Time taken</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Population size</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Parents per childs</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Children per parents</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tournament size</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Similarity coef</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Mutation rate</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Mutation fade speed</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Similarity coef fade speed</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Control precision</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="34.5" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>2025-07-05 20:49:48</t>
+        </is>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>0.0006237580405718303</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>98.42345476150513</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P2" s="5" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="Q2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="R2" s="5" t="n">
+        <v>1.248178038890082</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-05 21:16:15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>441</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.995096778357671e-05</v>
+      </c>
+      <c r="I3" t="n">
+        <v>719.8934454917908</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="L3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.7252700912857061</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-06 16:51:14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.001328971075732769</v>
+      </c>
+      <c r="I4" t="n">
+        <v>117.9079144001007</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="N4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.667806128925185</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-06 16:53:38</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.008431190571284327</v>
+      </c>
+      <c r="I5" t="n">
+        <v>117.7425022125244</v>
+      </c>
+      <c r="J5" t="n">
+        <v>50</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.004253490950531134</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-07 16:51:23</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="D6" t="n">
+        <v>35</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>64</v>
+      </c>
+      <c r="G6" t="n">
+        <v>100</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.034186933860327</v>
+      </c>
+      <c r="I6" t="n">
+        <v>16289.11942315102</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.0001002165944474923</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-07 18:36:39</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>100</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.4441823347864396</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.018887758255005</v>
+      </c>
+      <c r="J7" t="n">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4.888719713286207e-06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-08 16:42:20</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sin</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.04157512466425749</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3902.334094047546</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
         <v>10</v>
       </c>
-      <c r="F2" s="5">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4">
-        <v>59</v>
-      </c>
-      <c r="H2" s="5">
-        <v>6.2375804057183027E-4</v>
-      </c>
-      <c r="I2" s="4">
-        <v>98.423454761505127</v>
-      </c>
-      <c r="J2" s="5">
-        <v>50</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2</v>
-      </c>
-      <c r="L2" s="5">
-        <v>6</v>
-      </c>
-      <c r="M2" s="4">
-        <v>4</v>
-      </c>
-      <c r="N2" s="5">
+      <c r="N8" t="n">
         <v>0.1</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O8" t="n">
         <v>0.7</v>
       </c>
-      <c r="P2" s="5">
-        <v>0.995</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>1</v>
-      </c>
-      <c r="R2" s="5">
-        <v>1.2481780388900821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>441</v>
-      </c>
-      <c r="H3">
-        <v>7.9950967783576712E-5</v>
-      </c>
-      <c r="I3">
-        <v>719.89344549179077</v>
-      </c>
-      <c r="J3">
-        <v>50</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <v>0.1</v>
-      </c>
-      <c r="O3">
-        <v>0.7</v>
-      </c>
-      <c r="P3">
-        <v>0.995</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>0.72527009128570608</v>
+      <c r="P8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.0001220171094646678</v>
       </c>
     </row>
   </sheetData>
